--- a/hebrewOutputs/hebrew82Comperation_4_Common_alpha=0.08.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_4_Common_alpha=0.08.xlsx
@@ -34,15 +34,15 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t>היי.</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t>היי.</t>
-  </si>
-  <si>
     <t>הורה:</t>
   </si>
   <si>
@@ -67,55 +67,55 @@
     <t>איפה הוא?</t>
   </si>
   <si>
+    <t>שמי דוק דוקטור דוק.</t>
+  </si>
+  <si>
+    <t>אני הרופא שקיבל את הילד שלך במיון.</t>
+  </si>
+  <si>
+    <t>כן (לא נשמע) איפה הוא עכשיו תגיד לי.</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>בוא נישב רגע, בוא נישב רגע.</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>אה?</t>
+  </si>
+  <si>
+    <t>?bid</t>
+  </si>
+  <si>
+    <t>(לא נשמע).</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t>רגע, הוא אכל משהו הוא שתה?</t>
+  </si>
+  <si>
+    <t>?other</t>
+  </si>
+  <si>
+    <t>יש כאן עוד משהו אתך?</t>
+  </si>
+  <si>
+    <t>[?]other</t>
+  </si>
+  <si>
+    <t>לא, לא, לא.</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
     <t>disagree</t>
-  </si>
-  <si>
-    <t>שמי דוק דוקטור דוק.</t>
-  </si>
-  <si>
-    <t>אני הרופא שקיבל את הילד שלך במיון.</t>
-  </si>
-  <si>
-    <t>כן (לא נשמע) איפה הוא עכשיו תגיד לי.</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>בוא נישב רגע, בוא נישב רגע.</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>אה?</t>
-  </si>
-  <si>
-    <t>?bid</t>
-  </si>
-  <si>
-    <t>(לא נשמע).</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t>רגע, הוא אכל משהו הוא שתה?</t>
-  </si>
-  <si>
-    <t>?other</t>
-  </si>
-  <si>
-    <t>יש כאן עוד משהו אתך?</t>
-  </si>
-  <si>
-    <t>[?]other</t>
-  </si>
-  <si>
-    <t>לא, לא, לא.</t>
-  </si>
-  <si>
-    <t>gives-other</t>
   </si>
   <si>
     <t>אתה זה שהביא אותו למיון?</t>
@@ -763,21 +763,21 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -791,10 +791,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -833,10 +833,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -861,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -869,27 +869,27 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -897,27 +897,27 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -925,24 +925,24 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -953,27 +953,27 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -981,24 +981,24 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1009,27 +1009,27 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1040,13 +1040,13 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1057,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1068,13 +1068,13 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1096,10 +1096,10 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1116,15 +1116,15 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
         <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1144,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1155,7 +1155,7 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1172,7 +1172,7 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1180,10 +1180,10 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1197,10 +1197,10 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1211,10 +1211,10 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1225,7 +1225,7 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1239,10 +1239,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1250,10 +1250,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1267,10 +1267,10 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1278,10 +1278,10 @@
         <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1295,10 +1295,10 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1323,10 +1323,10 @@
         <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1334,10 +1334,10 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1351,7 +1351,7 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1359,16 +1359,16 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
         <v>26</v>
       </c>
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1407,7 +1407,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1424,7 +1424,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1491,7 +1491,7 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -1505,10 +1505,10 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1519,7 +1519,7 @@
         <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -1533,7 +1533,7 @@
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -1544,13 +1544,13 @@
         <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1558,10 +1558,10 @@
         <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1575,10 +1575,10 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1589,7 +1589,7 @@
         <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -1603,10 +1603,10 @@
         <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1617,7 +1617,7 @@
         <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -1631,7 +1631,7 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -1648,7 +1648,7 @@
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1662,7 +1662,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1673,7 +1673,7 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -1687,10 +1687,10 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1701,7 +1701,7 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -1718,7 +1718,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1729,7 +1729,7 @@
         <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -1743,7 +1743,7 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -1771,10 +1771,10 @@
         <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1785,7 +1785,7 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -1799,10 +1799,10 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1816,7 +1816,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1827,7 +1827,7 @@
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -1841,10 +1841,10 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1855,10 +1855,10 @@
         <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1869,10 +1869,10 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -1897,10 +1897,10 @@
         <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1911,10 +1911,10 @@
         <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1925,10 +1925,10 @@
         <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1936,10 +1936,10 @@
         <v>105</v>
       </c>
       <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" t="s">
         <v>33</v>
-      </c>
-      <c r="C86" t="s">
-        <v>17</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -1953,10 +1953,10 @@
         <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1975,13 +1975,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" t="s">
         <v>26</v>
       </c>
-      <c r="B89" t="s">
-        <v>27</v>
-      </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -1995,10 +1995,10 @@
         <v>109</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2009,10 +2009,10 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2026,7 +2026,7 @@
         <v>48</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2037,10 +2037,10 @@
         <v>113</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2048,13 +2048,13 @@
         <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2062,10 +2062,10 @@
         <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -2076,13 +2076,13 @@
         <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2096,7 +2096,7 @@
         <v>48</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2107,7 +2107,7 @@
         <v>43</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2121,10 +2121,10 @@
         <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2132,10 +2132,10 @@
         <v>120</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -2149,10 +2149,10 @@
         <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2163,10 +2163,10 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2177,10 +2177,10 @@
         <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2191,10 +2191,10 @@
         <v>48</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2205,10 +2205,10 @@
         <v>127</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2219,10 +2219,10 @@
         <v>124</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2233,10 +2233,10 @@
         <v>48</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
